--- a/HW3_Excel1/HW3_114207401.xlsx
+++ b/HW3_Excel1/HW3_114207401.xlsx
@@ -282,7 +282,28 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -346,11 +367,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1040119531"/>
-        <c:axId val="2110832113"/>
+        <c:axId val="19253993"/>
+        <c:axId val="924076387"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1040119531"/>
+        <c:axId val="19253993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,10 +423,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110832113"/>
+        <c:crossAx val="924076387"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110832113"/>
+        <c:axId val="924076387"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -483,7 +504,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1040119531"/>
+        <c:crossAx val="19253993"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
     </c:plotArea>
@@ -29230,6 +29251,16 @@
       <c r="Z1000" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L2:L15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L15">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
